--- a/data/trans_dic/P34B01_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34B01_R-Edad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.4841721506498393</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.615425044551524</v>
+        <v>0.6154250445515241</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.4139368499135985</v>
@@ -655,7 +655,7 @@
         <v>0.5264777101884669</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6459115143981029</v>
+        <v>0.645911514398103</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3328380625159787</v>
@@ -664,7 +664,7 @@
         <v>0.5047097698023538</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6297857885054571</v>
+        <v>0.629785788505457</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2131306194970289</v>
+        <v>0.217360933879098</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4331281137986471</v>
+        <v>0.4333807868898635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5359325624644475</v>
+        <v>0.5337592029935265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3687240285737434</v>
+        <v>0.3690067627181673</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4792194555307748</v>
+        <v>0.4712563095448649</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5696698351351706</v>
+        <v>0.5736646142878762</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3035750586846334</v>
+        <v>0.3044254541734489</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4713369444050216</v>
+        <v>0.4710567395939615</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5773006874782765</v>
+        <v>0.5806683016869124</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2922018110568159</v>
+        <v>0.2962996173026797</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5324617739699237</v>
+        <v>0.539170157256046</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6917838582747259</v>
+        <v>0.6885903063953002</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4616603311540946</v>
+        <v>0.4633361416575055</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5757720287197358</v>
+        <v>0.5705218795032426</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7078936908770012</v>
+        <v>0.7108025366727703</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3666614315553168</v>
+        <v>0.3677566545078367</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5395669195445678</v>
+        <v>0.5398125758890034</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6777548107899781</v>
+        <v>0.6797463566469213</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.538767211407022</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6388057636424535</v>
+        <v>0.6388057636424533</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.5150780158689207</v>
@@ -773,7 +773,7 @@
         <v>0.5513834516848636</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.657672225399921</v>
+        <v>0.6576722253999209</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2863977027094505</v>
+        <v>0.2829612760065413</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4963268354242049</v>
+        <v>0.4982554983447471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5777130940749083</v>
+        <v>0.5791216602904922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4773539629412026</v>
+        <v>0.4742982466186746</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.527347253748597</v>
+        <v>0.5209025173285367</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6342462836070102</v>
+        <v>0.6284390492746423</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3851129292496261</v>
+        <v>0.3858135532881662</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5224551634796657</v>
+        <v>0.5239100133011506</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6227186421384068</v>
+        <v>0.6240277579697066</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3550782925286136</v>
+        <v>0.3607171939348534</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.577992236992047</v>
+        <v>0.5816824247727372</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6912333004404542</v>
+        <v>0.6932965309354165</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5582925416751227</v>
+        <v>0.5536440751050857</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6033617432725685</v>
+        <v>0.6039199890250109</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7142882443258003</v>
+        <v>0.71856760122993</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4385322849360279</v>
+        <v>0.4403519919717196</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5819382248766016</v>
+        <v>0.5800195755135649</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6946092557832746</v>
+        <v>0.6930762488656956</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.4796495413993477</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6169770825800671</v>
+        <v>0.616977082580067</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.4869537531640769</v>
@@ -882,7 +882,7 @@
         <v>0.5142418507910792</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6301110501448499</v>
+        <v>0.6301110501448498</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3615926681767518</v>
+        <v>0.3714329260749443</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4447308199162533</v>
+        <v>0.4398062533353052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5712379980726533</v>
+        <v>0.5701943143721712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4516832572582775</v>
+        <v>0.4500149907814238</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5114278203981875</v>
+        <v>0.5120546276909086</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6129610298329056</v>
+        <v>0.6093782778295922</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4184192657258197</v>
+        <v>0.4202564006173434</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4843924925354701</v>
+        <v>0.4890793811033784</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6033537624258192</v>
+        <v>0.6042095793450114</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4452826043013269</v>
+        <v>0.4531008443977157</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5215352721637313</v>
+        <v>0.5166821511854867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6561863153574894</v>
+        <v>0.6577359111647043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5240104489150066</v>
+        <v>0.5253427778688555</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5893504207333102</v>
+        <v>0.5897203788080599</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6780143414534735</v>
+        <v>0.6771726855598932</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4756021234809925</v>
+        <v>0.4747917609892134</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.54118247100121</v>
+        <v>0.5454175269161713</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6556229809910605</v>
+        <v>0.6549593224387734</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.5364550842468948</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6755912292474171</v>
+        <v>0.6755912292474172</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.5441311716517618</v>
@@ -982,7 +982,7 @@
         <v>0.5831278964837686</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.6669850618085217</v>
+        <v>0.6669850618085218</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.5000553700072741</v>
@@ -991,7 +991,7 @@
         <v>0.559846062379373</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.6711869689031367</v>
+        <v>0.6711869689031366</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4142671875388656</v>
+        <v>0.4110075650858853</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4927883640070113</v>
+        <v>0.4945195354287399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6382692475395694</v>
+        <v>0.6369118661494374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4965213689155645</v>
+        <v>0.49921009598641</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5460847729153994</v>
+        <v>0.5454130537261553</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6380358195955406</v>
+        <v>0.6386625798806528</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4678197657595458</v>
+        <v>0.4708821908690345</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5346795506975659</v>
+        <v>0.5309660099271082</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.645905520597273</v>
+        <v>0.6478979016422686</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5001033680291935</v>
+        <v>0.4953351117958403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5760709671406929</v>
+        <v>0.5795957616616978</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.711430054648914</v>
+        <v>0.7080921555917767</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5837841876616484</v>
+        <v>0.5844732356138859</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6247346414979648</v>
+        <v>0.6234569958570072</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6930219572534499</v>
+        <v>0.6932552889847232</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5303266998663357</v>
+        <v>0.5310467843609489</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5897010792678644</v>
+        <v>0.586455611957725</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6934031336887655</v>
+        <v>0.6933606971113674</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.5160011800170295</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.646489040127139</v>
+        <v>0.6464890401271391</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.5845338634169943</v>
@@ -1100,7 +1100,7 @@
         <v>0.5696669507422573</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6522001091418419</v>
+        <v>0.652200109141842</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.558685835875269</v>
+        <v>0.5601347738926926</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5794729141373671</v>
+        <v>0.5809361510328688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6215906648579825</v>
+        <v>0.6188631347763323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5137488266394427</v>
+        <v>0.5093561188312146</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4718039881365697</v>
+        <v>0.4663607002892247</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.614426874887228</v>
+        <v>0.61716307018053</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.550180342301506</v>
+        <v>0.5479557506288205</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5371336872658355</v>
+        <v>0.537223260471844</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6271723802819762</v>
+        <v>0.6257795682676203</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.653837817289495</v>
+        <v>0.6569701983620408</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6738397142977361</v>
+        <v>0.6724492147247957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6939211991478516</v>
+        <v>0.6936790587094308</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6137623492954009</v>
+        <v>0.6044033179637615</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5651895303182802</v>
+        <v>0.5657538621101316</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6758680892073688</v>
+        <v>0.6797146990824195</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6197267308723047</v>
+        <v>0.6190248392572214</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6040394148521118</v>
+        <v>0.604351713358095</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6767526151199957</v>
+        <v>0.6730472174220433</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.6307092303607719</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7574672698450415</v>
+        <v>0.7574672698450414</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.5172096941383347</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6316015146670784</v>
+        <v>0.6313571781045958</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.578837378165308</v>
+        <v>0.5699470281861067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7214429911403106</v>
+        <v>0.7223317457746677</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4652151410926852</v>
+        <v>0.4619131049556498</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5051750065015821</v>
+        <v>0.5076055403239506</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6086763319135564</v>
+        <v>0.6106259222133156</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5585966878357068</v>
+        <v>0.5540558925547612</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.553316151320021</v>
+        <v>0.5534659481780156</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.674541649433794</v>
+        <v>0.6712547120311197</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7468574362956879</v>
+        <v>0.7401597369893796</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6861180492121819</v>
+        <v>0.6801409255907168</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7922302306703027</v>
+        <v>0.7934272191367578</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5720764944548652</v>
+        <v>0.5720605049855435</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6048525657491897</v>
+        <v>0.6010393289140205</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6790274055545952</v>
+        <v>0.6758398503036458</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6385647166656306</v>
+        <v>0.6370535759667723</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6306075689302034</v>
+        <v>0.6302373184419237</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7222319808750417</v>
+        <v>0.722462228149886</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.4544793039134348</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.4971807159940691</v>
+        <v>0.4971807159940692</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5564757013138849</v>
+        <v>0.5669004538562235</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4951680706969305</v>
+        <v>0.4912937513172027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5852681674634113</v>
+        <v>0.5857338944157731</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3335037293171456</v>
+        <v>0.3315179039176115</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3393644229944969</v>
+        <v>0.3392246980126073</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3760111590859957</v>
+        <v>0.3752750072601079</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4361434401132254</v>
+        <v>0.4375221464898828</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4165871076219245</v>
+        <v>0.4158164368428726</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4686277298199095</v>
+        <v>0.4679954953983412</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6864513091944663</v>
+        <v>0.6956082209828619</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6095700277928682</v>
+        <v>0.6090518202532936</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6752888044761961</v>
+        <v>0.6770910238842891</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4319824260078076</v>
+        <v>0.431786284111819</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4531777921492571</v>
+        <v>0.4496817986147569</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4435774859350378</v>
+        <v>0.4443573983788284</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5198266721653882</v>
+        <v>0.5208675555709525</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4927337304183146</v>
+        <v>0.500765443370363</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5235014170731103</v>
+        <v>0.5271863546146618</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.5337618597587722</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.6237647099923262</v>
+        <v>0.6237647099923264</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.4698903478841708</v>
@@ -1427,7 +1427,7 @@
         <v>0.5378014160647645</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.6393243907554478</v>
+        <v>0.639324390755448</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4280556035553459</v>
+        <v>0.4271492689329223</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5238847052660197</v>
+        <v>0.523404012320373</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6374400398937949</v>
+        <v>0.6379708143317498</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4761864461322814</v>
+        <v>0.474988062442779</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5169319926089898</v>
+        <v>0.5171707000506428</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6093393542026443</v>
+        <v>0.6112805113001543</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4566768228383484</v>
+        <v>0.4578624177933006</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.5258644574518868</v>
+        <v>0.5255009593056424</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6290207339339932</v>
+        <v>0.6276455250946544</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4626216721760857</v>
+        <v>0.4634695588037939</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5584070065620342</v>
+        <v>0.558611519327176</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6722979194181645</v>
+        <v>0.6748607006069125</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.512062734673709</v>
+        <v>0.5105704702176472</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5514292837989937</v>
+        <v>0.5509438818930049</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6385713874974336</v>
+        <v>0.6365786352349063</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4827371829782903</v>
+        <v>0.4822018116182441</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5490599656309405</v>
+        <v>0.5495162567142472</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6507376301441509</v>
+        <v>0.6501188707279886</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>96543</v>
+        <v>98459</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>181681</v>
+        <v>181787</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>215864</v>
+        <v>214989</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>158636</v>
+        <v>158758</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>189653</v>
+        <v>186502</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>204339</v>
+        <v>205772</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>268119</v>
+        <v>268870</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>384242</v>
+        <v>384014</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>439602</v>
+        <v>442167</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>132360</v>
+        <v>134216</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>223348</v>
+        <v>226162</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>278638</v>
+        <v>277352</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>198620</v>
+        <v>199341</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>227865</v>
+        <v>225787</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>253919</v>
+        <v>254963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>323837</v>
+        <v>324805</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>439865</v>
+        <v>440065</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>516096</v>
+        <v>517613</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>196523</v>
+        <v>194165</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>293079</v>
+        <v>294218</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>274762</v>
+        <v>275432</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>291308</v>
+        <v>289443</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>297183</v>
+        <v>293551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>317810</v>
+        <v>314900</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>499278</v>
+        <v>500186</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>602934</v>
+        <v>604613</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>608201</v>
+        <v>609479</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>243651</v>
+        <v>247521</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>341302</v>
+        <v>343481</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>328753</v>
+        <v>329734</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>340701</v>
+        <v>337864</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>340021</v>
+        <v>340335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>357918</v>
+        <v>360062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>568533</v>
+        <v>570893</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>671580</v>
+        <v>669366</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>678415</v>
+        <v>676918</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>246557</v>
+        <v>253266</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>297568</v>
+        <v>294273</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>354007</v>
+        <v>353360</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>320224</v>
+        <v>319041</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>338251</v>
+        <v>338666</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>378481</v>
+        <v>376269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>581945</v>
+        <v>584501</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>644476</v>
+        <v>650712</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>746458</v>
+        <v>747517</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>303622</v>
+        <v>308953</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>348958</v>
+        <v>345710</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>406651</v>
+        <v>407611</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>371500</v>
+        <v>372445</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>389788</v>
+        <v>390033</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>418649</v>
+        <v>418129</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>661476</v>
+        <v>660349</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>720034</v>
+        <v>725669</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>811125</v>
+        <v>810304</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>254616</v>
+        <v>252612</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>318365</v>
+        <v>319483</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>445010</v>
+        <v>444063</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>305956</v>
+        <v>307613</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>354451</v>
+        <v>354015</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>466270</v>
+        <v>466728</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>575800</v>
+        <v>579569</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>692477</v>
+        <v>687667</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>922355</v>
+        <v>925200</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>307372</v>
+        <v>304441</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>372169</v>
+        <v>374447</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>496018</v>
+        <v>493691</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>359727</v>
+        <v>360152</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>405501</v>
+        <v>404672</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>506453</v>
+        <v>506623</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>652735</v>
+        <v>653621</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>763737</v>
+        <v>759533</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>990182</v>
+        <v>990121</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>239916</v>
+        <v>240538</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>276941</v>
+        <v>277640</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>377081</v>
+        <v>375427</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>230057</v>
+        <v>228090</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>234415</v>
+        <v>231711</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>372482</v>
+        <v>374140</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>482634</v>
+        <v>480683</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>523580</v>
+        <v>523668</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>760676</v>
+        <v>758987</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>280777</v>
+        <v>282122</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>322040</v>
+        <v>321376</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>420960</v>
+        <v>420813</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>274843</v>
+        <v>270652</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>280814</v>
+        <v>281094</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>409729</v>
+        <v>412061</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>543642</v>
+        <v>543027</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>588798</v>
+        <v>589102</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>820810</v>
+        <v>816316</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>195661</v>
+        <v>195586</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>193523</v>
+        <v>190550</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>291591</v>
+        <v>291950</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>164684</v>
+        <v>163515</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>190836</v>
+        <v>191754</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>267006</v>
+        <v>267861</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>370786</v>
+        <v>367772</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>394012</v>
+        <v>394119</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>568533</v>
+        <v>565762</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>231366</v>
+        <v>229291</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>229390</v>
+        <v>227392</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>320201</v>
+        <v>320685</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>202513</v>
+        <v>202507</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>228490</v>
+        <v>227050</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>297866</v>
+        <v>296468</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>423868</v>
+        <v>422865</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>449051</v>
+        <v>448787</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>608728</v>
+        <v>608922</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>139036</v>
+        <v>141641</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>127257</v>
+        <v>126262</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>181549</v>
+        <v>181693</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>129726</v>
+        <v>128954</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>135803</v>
+        <v>135747</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>173976</v>
+        <v>173635</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>278622</v>
+        <v>279502</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>273767</v>
+        <v>273261</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>362196</v>
+        <v>361708</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>171511</v>
+        <v>173798</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>156658</v>
+        <v>156525</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>209473</v>
+        <v>210032</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>168032</v>
+        <v>167956</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>181348</v>
+        <v>179949</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>205238</v>
+        <v>205599</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>332081</v>
+        <v>332746</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>323808</v>
+        <v>329087</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>404607</v>
+        <v>407455</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1465967</v>
+        <v>1462863</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1778248</v>
+        <v>1776616</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2241451</v>
+        <v>2243317</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1693517</v>
+        <v>1689255</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1832287</v>
+        <v>1833133</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2264069</v>
+        <v>2271282</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>3188118</v>
+        <v>3196395</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3648917</v>
+        <v>3646394</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4549043</v>
+        <v>4539098</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1584346</v>
+        <v>1587249</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1895429</v>
+        <v>1896123</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2364023</v>
+        <v>2373034</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1821108</v>
+        <v>1815800</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1954564</v>
+        <v>1952844</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2372684</v>
+        <v>2365280</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>3370049</v>
+        <v>3366312</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>3809868</v>
+        <v>3813034</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4706099</v>
+        <v>4701624</v>
       </c>
     </row>
     <row r="36">
